--- a/loaded_influencer_data/asapabes/asapabes_video.xlsx
+++ b/loaded_influencer_data/asapabes/asapabes_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7330090859674733866</t>
         </is>
@@ -515,10 +515,10 @@
         <v>1900000</v>
       </c>
       <c r="C2" t="n">
-        <v>244800</v>
+        <v>244900</v>
       </c>
       <c r="D2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.91284210526316</v>
+        <v>12.91821052631579</v>
       </c>
       <c r="I2" t="n">
-        <v>12.88421052631579</v>
+        <v>12.88947368421053</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02863157894736842</v>
+        <v>0.02873684210526316</v>
       </c>
       <c r="L2" t="n">
         <v>4.315789473684211</v>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7368621065146289451</t>
         </is>
@@ -567,16 +567,16 @@
         <v>1000000</v>
       </c>
       <c r="C3" t="n">
-        <v>186900</v>
+        <v>187100</v>
       </c>
       <c r="D3" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18.7186</v>
+        <v>18.7387</v>
       </c>
       <c r="I3" t="n">
-        <v>18.69</v>
+        <v>18.71</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="L3" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7360473149772729643</t>
         </is>
@@ -619,36 +619,36 @@
         <v>7000000</v>
       </c>
       <c r="C4" t="n">
-        <v>186900</v>
+        <v>641200</v>
       </c>
       <c r="D4" t="n">
-        <v>286</v>
+        <v>1697</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33700</v>
+        <v>65200</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ib: @kelsey revelo | beauty lover ✨ thin brows &amp; gloss is gonna do it everytime</t>
+          <t>its another hair video</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.674085714285714</v>
+        <v>9.184242857142857</v>
       </c>
       <c r="I4" t="n">
-        <v>2.67</v>
+        <v>9.16</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004085714285714285</v>
+        <v>0.02424285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4814285714285714</v>
+        <v>0.9314285714285714</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -657,2317 +657,2368 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-5-14</t>
+          <t>2024-4-22</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/photo/7489666246678416683</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21700</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2838</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>571</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>its another hair video</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>13.1705069124424</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.07834101382488</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09216589861751152</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.631336405529954</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/video/7489573276759428398</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>31300</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4840</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>139</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>this is everything to me</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>15.60063897763578</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.46325878594249</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1373801916932907</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4440894568690096</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/video/7489528630658288942</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>130</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>love a morning routine &amp; @Aveeno Skin Relief Moisturizing Lotion has saved my skin during these drier months!! 🧴🤍</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6.472332015810276</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.422924901185771</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04940711462450593</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.09881422924901186</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/video/7489509493936573738</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>can you tell I liked my outfit</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15.1031746031746</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.99206349206349</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/video/7489304455695830318</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6497</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>snippets of my day 🙇🏽‍♀️
+#dayinmylife #ditl #ditlvlog</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>16.13052177928275</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.86886255194705</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2616592273356934</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2308757888256118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@asapabes/video/7489236958078733614</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4794</v>
+      </c>
+      <c r="C10" t="n">
+        <v>617</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Oh!</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12.95369211514393</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.87025448477263</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08343763037129745</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1668752607425949</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/photo/7486709433674829098</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>8884</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>640900</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>1700</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>65200</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>its another hair video</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>7233.228275551553</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>7214.092751013057</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>19.13552453849617</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>733.9036470058531</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2024-4-22</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486670515818564906</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>122300</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>1016</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>randoms in the camera roll</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>0.8413736713000818</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>0.830744071954211</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.01062959934587081</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.01144726083401472</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486637181398699310</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>5947</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>13600</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>98</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>770</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>I never knew this was an option and I’m loving my results so far</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>230.3346224987389</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>228.686732806457</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.647889692281823</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>12.94770472507147</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486605626941164846</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>8076</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>861</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>19</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I never knew this was an option and I’m loving my results so far</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>10.69836552748886</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>10.66121842496285</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.03714710252600297</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.2352649826646855</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486544751643381038</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>12300</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>861</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>19</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>exciting day of errands and meetings 🍵
 #dayinmylife #dailyvlog #morningroutine #nightroutine #pilatesprincess</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>7.02439024390244</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.02439024390243903</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>0.1544715447154472</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486321110825454890</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>8639</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>777</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>26</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>My favorite affordable mascara @Milani Cosmetics highly rated lash extensions tubing mascara ⭐️</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>9.144576918624841</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>8.994096538951267</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.1504803796735733</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.3009607593471467</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7486299599855193390</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>11200</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>1290</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>36</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>banana &amp; matcha….sign me up! #matchalatte</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>11.66071428571428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>11.51785714285714</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485978904881024299</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>102800</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>1324</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>19</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>another day another slay 🧘🏽‍♀️
 #dayinmylife #diml #workoutroutine #morningroutine</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>1.295719844357977</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>1.287937743190662</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.007782101167315175</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.01848249027237354</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485892561316482346</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>10100</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>1479</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>23</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>random ootd ✌🏼</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>14.81188118811881</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>14.64356435643564</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.1683168316831683</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.2277227722772277</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485872037957831979</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>775600</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>15100</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>79</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>546</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>random ootd ✌🏼</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>1.957065497679216</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>1.946879834966478</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.01018566271273853</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.0703971119133574</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485849338590072110</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>30400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>1555</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>23</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>it’s giving big backs 😭</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>5.157894736842105</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>5.115131578947368</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.04276315789473684</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.0756578947368421</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485553287564102958</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>14900</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>1603</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>149</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>#CrestPartner #Ad How I’ve completely transformed my teeth using the @Crest #3DWhitestrips Get these on</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>10.83892617449664</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>10.75838926174497</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.08053691275167785</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485502687543414058</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>23500</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>3157</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>34</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>116</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>I feel SNATCHED</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>13.57872340425532</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>13.43404255319149</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1446808510638298</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.4936170212765958</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485473732996418862</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>21500</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>1735</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>24</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>sunday vibe 🤍
 #morningroutine #dayinmylife</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>8.093023255813954</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>8.069767441860465</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.02325581395348837</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.1116279069767442</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485117105319185710</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>19900</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>2483</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>22</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>wishing I lived on Wisteria lane</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>12.60804020100502</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>12.47738693467337</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.1306532663316583</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.1105527638190955</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7485083104642616618</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>17000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>2194</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>42</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>38</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>capris are so back</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>13.15294117647059</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>12.90588235294118</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.2470588235294118</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.2235294117647059</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484835729793633578</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>26100</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>2959</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>55</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>loves a Saturday 🤍
 #morningroutine #dayinmylife #pilatesworkout #homebodylife</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>11.4367816091954</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>11.33716475095785</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.0996168582375479</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>0.210727969348659</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484784363041869098</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>12700</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>1877</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>32</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>76</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>spring makeup 🧈🧈🧈</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>15.03149606299213</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>14.77952755905512</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.2519685039370079</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.5984251968503937</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484737336224353578</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>10200</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>3689</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>42</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>61</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>ootn!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>36.57843137254902</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>36.16666666666667</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.5980392156862745</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/photo/7484477357533744427</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>18800</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>1753</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>24</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>hot girls get overstimulated at the dmv
 #dayinmylife #morningroutine #workoutroutine</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>9.377659574468085</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>9.324468085106382</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.05319148936170213</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>0.1276595744680851</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484410288813428014</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>31900</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>935</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>43</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>super excited btw 😄
 #kbeauty #koreanskincare</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>2.968652037617555</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>2.931034482758621</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.03761755485893416</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.1347962382445141</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484362899809488170</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>14300</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>2447</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>13</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>60</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>you can hear it in the silence</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>17.2027972027972</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>17.11188811188811</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.4195804195804196</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484056939509386539</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>15400</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>3246</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>38</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>115</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@rhode skin 🍇🍇🍇</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>21.32467532467533</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>21.07792207792208</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2467532467532468</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>0.7467532467532467</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7484035914302360874</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>19000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>2087</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>22</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>31</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>happy Friday 🌷
 #dayinmylife #pilates #morningroutine #wellness #morningvlog #homecooking</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>11.1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>10.98421052631579</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.1157894736842105</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.1631578947368421</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7483987182982663470</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>16000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>2805</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>72</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>happy 1st day of spring 🤍</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>17.59375</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>17.53125</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.0625</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.45</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7483727878018878762</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>55000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>902</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>25</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>the @loréal paris usa faux brow is a GAMECHANGER! the quickest way to naturally fuller looking brows, available at Ulta! I’m wearing shade ‘Dark Brunette’</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>1.654545454545454</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>1.64</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.01454545454545455</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.04545454545454546</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7483692826459508011</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>22600</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>2251</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>30</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>43</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>It’s starting to feel like spring! Obvs had to do some spring shopping &amp; cleaning🌷🧹 🧘🏽‍♀️
 #dayinmylife</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>10.0929203539823</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>9.960176991150442</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1327433628318584</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.1902654867256637</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/photo/7483646336223726894</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>51000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>6422</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>33</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>117</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>stop this trend is so funny</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>12.65686274509804</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>12.5921568627451</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.06470588235294118</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>0.2294117647058824</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7483578412486020398</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>22800</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>2474</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>14</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>59</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>didn’t get my 2nd lift of the week in this time but I’ve been loving my Pilates x strength training combo 🧘🏽‍♀️🩰🏋️‍♀️</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>10.91228070175439</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>10.85087719298246</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.06140350877192983</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.2587719298245614</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/photo/7483338128548220191</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>23400</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>6584</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>916</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>me 🤝 homemade yummy foods
 #cookingathome #highproteinmeals #cleaneating</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>28.27350427350427</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>28.13675213675214</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1367521367521368</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>3.914529914529914</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7483222532749937963</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>21500</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>3566</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>29</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>83</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>me 🤝 homemade yummy foods
 #cookingathome #highproteinmeals #cleaneating</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>16.72093023255814</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>16.58604651162791</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1348837209302325</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.386046511627907</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7482903036617035050</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>31400</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>3304</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>15</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>I swear the first pic is my brother and sister lol</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>10.56050955414013</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>10.52229299363057</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.03821656050955414</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.04777070063694268</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7482573610851306798</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>17600</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>2226</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>13</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>85</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>this was so delish 😭</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>12.72159090909091</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>12.64772727272727</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.07386363636363637</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.4829545454545454</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7482211930858458410</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>34500</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>4359</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>27</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>185</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>guys this place was HEAVEN sent #kbeauty #koreanskincare</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>12.71304347826087</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>12.63478260869565</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.0782608695652174</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.5362318840579711</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7482165804633673006</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>38400</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>1560</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>10</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>😎</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>4.098958333333334</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>4.0625</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.03645833333333334</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.02604166666666667</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7482140385826065710</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>29500</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>5176</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>36</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>33</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Sonny Angel girlies now @alyssaaaa</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>17.66779661016949</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>17.54576271186441</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1220338983050847</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>0.111864406779661</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7481800286290447658</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>28900</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>4463</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>114</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>56</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>I’m obsessed with capris</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>15.83737024221453</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>15.44290657439446</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.3944636678200693</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>0.1937716262975779</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7481764434885496110</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>36100</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>4905</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>19</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>104</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>rainy slow mornings, pilates, and home made matcha 🫶🏽🍵🧘🏽‍♀️ #morningroutine #pilatesworkout #dayinmylife</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>13.6398891966759</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>13.58725761772853</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.05263157894736842</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.2880886426592797</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7481507991959735598</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>14100</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>3167</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>26</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>107</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>It’s sleek hair spring</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>22.64539007092199</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>22.46099290780142</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1843971631205674</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.7588652482269503</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7481453168434498862</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>13500</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>3759</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>22</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>124</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>have a matcha 🍵🍓</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>28.00740740740741</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>27.84444444444444</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1629629629629629</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>0.9185185185185185</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@asapabes/video/7481432444336475435</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>18100</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>827</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>11</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>the cutest travel day outfit @VSPINK ⭐️ #pinkpartner</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>4.640883977900553</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>4.569060773480663</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.0718232044198895</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.06077348066298343</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@asapabes/video/7481144029984607534</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>238500</v>
-      </c>
-      <c r="C46" t="n">
-        <v>842</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>took me 2 whole years to finally purchase and I’m so happy with them 🥹🩷</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0.3576519916142558</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.3530398322851153</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.004612159329140462</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.00419287211740042</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@asapabes/video/7481087826315005226</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>65500</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1519</v>
-      </c>
-      <c r="D47" t="n">
-        <v>26</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>61</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>ready for it to be summer already</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.358778625954198</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.319083969465649</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.03969465648854962</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.09312977099236641</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@asapabes/video/7481039564203724078</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>41800</v>
-      </c>
-      <c r="C48" t="n">
-        <v>35100</v>
-      </c>
-      <c r="D48" t="n">
-        <v>448</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>809</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>😄</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>85.04306220095694</v>
-      </c>
-      <c r="I48" t="n">
-        <v>83.97129186602871</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.07177033492823</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.935406698564593</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@asapabes/video/7480712622837370158</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>40100</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9196</v>
-      </c>
-      <c r="D49" t="n">
-        <v>115</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>253</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>I feel so chic rn</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>23.21945137157107</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22.93266832917706</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.286783042394015</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.6309226932668329</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@asapabes/video/7480629897304640814</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>25700</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4461</v>
-      </c>
-      <c r="D50" t="n">
-        <v>39</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>303</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>I will go to bed dreaming about this</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>17.50972762645914</v>
-      </c>
-      <c r="I50" t="n">
-        <v>17.3579766536965</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.1517509727626459</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.178988326848249</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
         </is>
       </c>
     </row>
